--- a/TNR_JDD/JDD.RO.CLI.xlsx
+++ b/TNR_JDD/JDD.RO.CLI.xlsx
@@ -7,20 +7,44 @@
     <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="IHMTO" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="MODELE" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="MODELE" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgiiqzaJ69JFyGSPQnVWT/5CZQ6oA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="AoY7C3gQpWXcDviKLzK/sxeLOBvPh9QHSST3sRxOJOU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D62">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA4sCVHRM
+Jean-Marc LAFARGE    (2023-09-06 07:15:46)
+Le numéro de SIRET est calculé en base, c'est la combinaison des numéros SIREN et NIC</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7minqquU8LKx2mS1sj77L4EgAX4rdg=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -513,6 +537,9 @@
     <t>varchar(14)</t>
   </si>
   <si>
+    <t>CALCULEE : ST_SIREN + ST_NIC</t>
+  </si>
+  <si>
     <t>ID_CODJUR</t>
   </si>
   <si>
@@ -597,6 +624,9 @@
     <t>RT.EMP*001*ID_NUMEMP</t>
   </si>
   <si>
+    <t>CALCULEE</t>
+  </si>
+  <si>
     <t>RO.ORG*001*ID_CODGES</t>
   </si>
   <si>
@@ -615,7 +645,16 @@
     <t>EMP_ID</t>
   </si>
   <si>
+    <t>CLI_ID</t>
+  </si>
+  <si>
     <t>FOUDOC_ID</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>CLI.ST_ETA</t>
   </si>
   <si>
     <t>LOCATOR</t>
@@ -668,6 +707,37 @@
     </r>
   </si>
   <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>INTER.ST</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>_ETA</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>Defaut</t>
+  </si>
+  <si>
     <t>Champ</t>
   </si>
 </sst>
@@ -678,7 +748,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -748,8 +818,17 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +863,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -843,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -888,19 +973,37 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -926,6 +1029,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3220,19 +3327,22 @@
       <c r="C62" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="D62" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="E62" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>25</v>
@@ -3243,13 +3353,13 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>25</v>
@@ -3260,10 +3370,10 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>24</v>
@@ -3274,10 +3384,10 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>24</v>
@@ -3291,13 +3401,13 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>25</v>
@@ -3308,10 +3418,10 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>81</v>
@@ -3325,10 +3435,10 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>39</v>
@@ -3345,10 +3455,10 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>39</v>
@@ -3365,13 +3475,13 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>103</v>
@@ -3382,13 +3492,13 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>103</v>
@@ -4329,7 +4439,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4341,10 +4452,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -4355,1093 +4466,943 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AM1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AO1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AR1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AS1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AT1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AU1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AV1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AW1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AX1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AY1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BA1" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BB1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BC1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BD1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BE1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BF1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BG1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BH1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="BI1" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ1" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="BN1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO1" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP1" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="BQ1" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR1" s="19" t="s">
-        <v>179</v>
+      <c r="BI1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP1" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR1" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF2" s="20" t="s">
+      <c r="J2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AF2" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AG2" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="AI2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD2" s="20" t="s">
+      <c r="AH2" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="BE2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM2" s="20" t="s">
+      <c r="AI2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="BN2" s="20" t="s">
+      <c r="BE2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH2" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="BO2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR2" s="20" t="s">
+      <c r="BI2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM2" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR3" s="20" t="s">
+      <c r="A3" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="BE4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC4" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="BO4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR4" s="20" t="s">
+      <c r="BD4" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="BM5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="BN5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR5" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="21"/>
+      <c r="BO5" s="21"/>
+      <c r="BP5" s="21"/>
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="21"/>
+    </row>
+    <row r="6">
       <c r="A6" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>9</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="21" t="s">
         <v>9</v>
       </c>
@@ -5460,21 +5421,11 @@
       <c r="O6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="21" t="s">
         <v>9</v>
       </c>
@@ -5506,22 +5457,22 @@
         <v>9</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="AH6" s="21" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="AI6" s="21" t="s">
         <v>9</v>
       </c>
       <c r="AJ6" s="21" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="AK6" s="21" t="s">
         <v>9</v>
@@ -5568,9 +5519,7 @@
       <c r="AY6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AZ6" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="AZ6" s="21"/>
       <c r="BA6" s="21" t="s">
         <v>9</v>
       </c>
@@ -5605,10 +5554,10 @@
         <v>9</v>
       </c>
       <c r="BL6" s="21" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="BM6" s="21" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="BN6" s="21" t="s">
         <v>9</v>
@@ -5626,647 +5575,856 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR7" s="23" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="22"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="22"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="22"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="22"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="22"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="22"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="22"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="22"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="22"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="22"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="22"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="22"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="22"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="22"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="22"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="22"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="22"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="22"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="22"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="22"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="22"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="22"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="22"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="22"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="22"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="22"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="22"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="22"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="22"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="22"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="22"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="22"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="22"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="22"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="22"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="22"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="22"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="22"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="22"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="22"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="22"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="22"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="22"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="22"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="22"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="22"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="22"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="22"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="22"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="22"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="22"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="22"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="22"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="22"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="22"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="22"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="22"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="22"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="22"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="22"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="22"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="22"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="22"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="22"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="22"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="22"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="22"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="22"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="22"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="22"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="22"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="22"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="22"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="22"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="22"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="22"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="22"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="22"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="22"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="22"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="22"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="22"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="22"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="22"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="22"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="22"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="22"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="22"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="22"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="22"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="22"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="22"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="22"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="22"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="22"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="22"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="22"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="22"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="22"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="22"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="22"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="22"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="22"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="22"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="22"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="22"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="22"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="22"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="22"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -7076,14 +7234,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>200</v>
+      <c r="A1" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -8097,6 +8255,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -8115,706 +8310,706 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="20"/>
+      <c r="A3" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="21"/>
+      <c r="A6" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="22"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="22"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="22"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="22"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="22"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="22"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="22"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="22"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="22"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="22"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="22"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="22"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="22"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="22"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="22"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="22"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="22"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="22"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="22"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="22"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="22"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="22"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="22"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="22"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="22"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="22"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="22"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="22"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="22"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="22"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="22"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="22"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="22"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="22"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="22"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="22"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="22"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="22"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="22"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="22"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="22"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="22"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="22"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="22"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="22"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="22"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="22"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="22"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="22"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="22"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="22"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="22"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="22"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="22"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="22"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="22"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="22"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="22"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="22"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="22"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="22"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="22"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="22"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="22"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="22"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="22"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="22"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="22"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="22"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="22"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="22"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="22"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="22"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="22"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="22"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="22"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="22"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="22"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="22"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="22"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="22"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="22"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="22"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="22"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="22"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="22"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="22"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="22"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="22"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="22"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="22"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="22"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="22"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="22"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="22"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="22"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="22"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="22"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="22"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="22"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="22"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="22"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="22"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="22"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="22"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="22"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="22"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="22"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="22"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RO.CLI.xlsx
+++ b/TNR_JDD/JDD.RO.CLI.xlsx
@@ -20,31 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D62">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAA4sCVHRM
-Jean-Marc LAFARGE    (2023-09-06 07:15:46)
-Le numéro de SIRET est calculé en base, c'est la combinaison des numéros SIREN et NIC</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7minqquU8LKx2mS1sj77L4EgAX4rdg=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -537,7 +514,8 @@
     <t>varchar(14)</t>
   </si>
   <si>
-    <t>CALCULEE : ST_SIREN + ST_NIC</t>
+    <t>CALCULE
+ST_SIREN + ST_NIC</t>
   </si>
   <si>
     <t>ID_CODJUR</t>
@@ -714,22 +692,6 @@
   </si>
   <si>
     <t>VALEUR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>INTER.ST</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>_ETA</t>
-    </r>
   </si>
   <si>
     <t>DEFAUT</t>
@@ -828,7 +790,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,12 +825,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -973,25 +929,22 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -999,10 +952,13 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3317,7 +3273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62">
       <c r="A62" s="12" t="s">
         <v>155</v>
       </c>
@@ -3327,7 +3283,7 @@
       <c r="C62" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>158</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -4439,8 +4395,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4466,1965 +4421,1965 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AS1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AT1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AU1" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="AV1" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="AW1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="AX1" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="AY1" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BA1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BB1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BC1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="20" t="s">
+      <c r="BD1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="BE1" s="20" t="s">
+      <c r="BE1" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" s="20" t="s">
+      <c r="BF1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BG1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="BH1" s="20" t="s">
+      <c r="BH1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="BI1" s="20" t="s">
+      <c r="BI1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="BJ1" s="20" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="BK1" s="20" t="s">
+      <c r="BK1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" s="20" t="s">
+      <c r="BL1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="BM1" s="20" t="s">
+      <c r="BM1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="BN1" s="20" t="s">
+      <c r="BN1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="BO1" s="20" t="s">
+      <c r="BO1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="BP1" s="20" t="s">
+      <c r="BP1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="BQ1" s="20" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="BR1" s="20" t="s">
+      <c r="BR1" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="21" t="s">
+      <c r="U2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AH2" s="21" t="s">
+      <c r="AH2" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AI2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AI2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AR2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AW2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="AX2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="AY2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="AZ2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="BA2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BA2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="BE2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF2" s="22"/>
-      <c r="BG2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH2" s="22" t="s">
+      <c r="BE2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH2" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="BI2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BI2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM2" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="BN2" s="21" t="s">
+      <c r="BN2" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="BO2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BO2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR2" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR3" s="21" t="s">
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR3" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="21" t="s">
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC4" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BD4" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="BE4" s="22" t="s">
+      <c r="BE4" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="BF4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN4" s="21" t="s">
+      <c r="BF4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN4" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="BO4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR4" s="21" t="s">
+      <c r="BO4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR4" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="22" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="21"/>
-      <c r="BO5" s="21"/>
-      <c r="BP5" s="21"/>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="21" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="AG6" s="21" t="s">
+      <c r="AG6" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AH6" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="AI6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="21" t="s">
+      <c r="AI6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="AK6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="21" t="s">
+      <c r="AK6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="BM6" s="21" t="s">
+      <c r="BM6" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="BN6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR6" s="21" t="s">
+      <c r="BN6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR7" s="23" t="s">
+      <c r="B7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR7" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="24"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="24"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="24"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="24"/>
+      <c r="A85" s="23"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="24"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="24"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="24"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="24"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="24"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="24"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="24"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="24"/>
+      <c r="A105" s="23"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="24"/>
+      <c r="A106" s="23"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="24"/>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="24"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="24"/>
+      <c r="A110" s="23"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="24"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="24"/>
+      <c r="A112" s="23"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="24"/>
+      <c r="A113" s="23"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="24"/>
+      <c r="A115" s="23"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="24"/>
+      <c r="A116" s="23"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="24"/>
+      <c r="A117" s="23"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="24"/>
+      <c r="A118" s="23"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="24"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="24"/>
+      <c r="A120" s="23"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="24"/>
+      <c r="A121" s="23"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="24"/>
+      <c r="A122" s="23"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="24"/>
+      <c r="A123" s="23"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="24"/>
+      <c r="A124" s="23"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="24"/>
+      <c r="A125" s="23"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="24"/>
+      <c r="A126" s="23"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="24"/>
+      <c r="A128" s="23"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="24"/>
+      <c r="A129" s="23"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="24"/>
+      <c r="A130" s="23"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="24"/>
+      <c r="A131" s="23"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="24"/>
+      <c r="A132" s="23"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="24"/>
+      <c r="A133" s="23"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="24"/>
+      <c r="A134" s="23"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="24"/>
+      <c r="A135" s="23"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="24"/>
+      <c r="A144" s="23"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="24"/>
+      <c r="A145" s="23"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="24"/>
+      <c r="A150" s="23"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="24"/>
+      <c r="A151" s="23"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="24"/>
+      <c r="A152" s="23"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="24"/>
+      <c r="A153" s="23"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="24"/>
+      <c r="A154" s="23"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="24"/>
+      <c r="A155" s="23"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="24"/>
+      <c r="A156" s="23"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="24"/>
+      <c r="A157" s="23"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="24"/>
+      <c r="A160" s="23"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="24"/>
+      <c r="A161" s="23"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="24"/>
+      <c r="A162" s="23"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="24"/>
+      <c r="A163" s="23"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="24"/>
+      <c r="A164" s="23"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="24"/>
+      <c r="A165" s="23"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="24"/>
+      <c r="A166" s="23"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="24"/>
+      <c r="A167" s="23"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="24"/>
+      <c r="A168" s="23"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="24"/>
+      <c r="A169" s="23"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="24"/>
+      <c r="A170" s="23"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="24"/>
+      <c r="A171" s="23"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="24"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="24"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="24"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="24"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="24"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="24"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="24"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="24"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="24"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="24"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="24"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="24"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="24"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="24"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="24"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="24"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="24"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="24"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="24"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="24"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="24"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="24"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="24"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="24"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="24"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="24"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="24"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="24"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="24"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="24"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="24"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="24"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="24"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="24"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="24"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="24"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="24"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="24"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="24"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="24"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="24"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="24"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="24"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="24"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="24"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="24"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="24"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="24"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -7234,13 +7189,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8262,25 +8217,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>210</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -8310,706 +8265,706 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="24"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="24"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="24"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="24"/>
+      <c r="A85" s="23"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="24"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="24"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="24"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="24"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="24"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="24"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="24"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="24"/>
+      <c r="A105" s="23"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="24"/>
+      <c r="A106" s="23"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="24"/>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="24"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="24"/>
+      <c r="A110" s="23"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="24"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="24"/>
+      <c r="A112" s="23"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="24"/>
+      <c r="A113" s="23"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="24"/>
+      <c r="A115" s="23"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="24"/>
+      <c r="A116" s="23"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="24"/>
+      <c r="A117" s="23"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="24"/>
+      <c r="A118" s="23"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="24"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="24"/>
+      <c r="A120" s="23"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="24"/>
+      <c r="A121" s="23"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="24"/>
+      <c r="A122" s="23"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="24"/>
+      <c r="A123" s="23"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="24"/>
+      <c r="A124" s="23"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="24"/>
+      <c r="A125" s="23"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="24"/>
+      <c r="A126" s="23"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="24"/>
+      <c r="A128" s="23"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="24"/>
+      <c r="A129" s="23"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="24"/>
+      <c r="A130" s="23"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="24"/>
+      <c r="A131" s="23"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="24"/>
+      <c r="A132" s="23"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="24"/>
+      <c r="A133" s="23"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="24"/>
+      <c r="A134" s="23"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="24"/>
+      <c r="A135" s="23"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="24"/>
+      <c r="A144" s="23"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="24"/>
+      <c r="A145" s="23"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="24"/>
+      <c r="A150" s="23"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="24"/>
+      <c r="A151" s="23"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="24"/>
+      <c r="A152" s="23"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="24"/>
+      <c r="A153" s="23"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="24"/>
+      <c r="A154" s="23"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="24"/>
+      <c r="A155" s="23"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="24"/>
+      <c r="A156" s="23"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="24"/>
+      <c r="A157" s="23"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="24"/>
+      <c r="A160" s="23"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="24"/>
+      <c r="A161" s="23"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="24"/>
+      <c r="A162" s="23"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="24"/>
+      <c r="A163" s="23"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="24"/>
+      <c r="A164" s="23"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="24"/>
+      <c r="A165" s="23"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="24"/>
+      <c r="A166" s="23"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="24"/>
+      <c r="A167" s="23"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="24"/>
+      <c r="A168" s="23"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="24"/>
+      <c r="A169" s="23"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="24"/>
+      <c r="A170" s="23"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="24"/>
+      <c r="A171" s="23"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="24"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="24"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="24"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="24"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="24"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="24"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="24"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="24"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="24"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="24"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="24"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="24"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="24"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="24"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="24"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="24"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="24"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="24"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="24"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="24"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="24"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="24"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="24"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="24"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="24"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="24"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="24"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="24"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="24"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="24"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="24"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="24"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="24"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="24"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="24"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="24"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="24"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="24"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="24"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="24"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="24"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="24"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="24"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="24"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="24"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="24"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="24"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="24"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RO.CLI.xlsx
+++ b/TNR_JDD/JDD.RO.CLI.xlsx
@@ -688,10 +688,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>DEFAUT</t>
